--- a/ITSupplyNovemberOrders.xlsx
+++ b/ITSupplyNovemberOrders.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22agerstner/Dropbox/Mac/Desktop/SQL/finalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F596844A-12F4-E04B-9008-F7433F1D1269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC4197F-C87F-3D4D-949C-B9F0D534012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{F9E4E640-81A9-4B9F-918C-49527ED03070}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{F9E4E640-81A9-4B9F-918C-49527ED03070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="orders" sheetId="2" r:id="rId2"/>
+    <sheet name="orderDetails" sheetId="3" r:id="rId3"/>
+    <sheet name="products" sheetId="4" r:id="rId4"/>
+    <sheet name="shippingMethods" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,26 +55,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={E67E4FDA-32D1-8D4A-BF84-AB2EF5FBC95B}</author>
-  </authors>
-  <commentList>
-    <comment ref="G43" authorId="0" shapeId="0" xr:uid="{E67E4FDA-32D1-8D4A-BF84-AB2EF5FBC95B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Approved by Raymond</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
   <si>
     <t>Customer</t>
   </si>
@@ -235,12 +220,6 @@
     <t>customerID</t>
   </si>
   <si>
-    <t>* Discount should be value or null</t>
-  </si>
-  <si>
-    <t>*approved column for discounts</t>
-  </si>
-  <si>
     <t>employeeID</t>
   </si>
   <si>
@@ -253,25 +232,64 @@
     <t>paymentDueDate</t>
   </si>
   <si>
-    <t>deliveryDate</t>
-  </si>
-  <si>
-    <t>orderStatus</t>
-  </si>
-  <si>
     <t>orderDetails</t>
   </si>
   <si>
     <t>products</t>
   </si>
   <si>
-    <t>productID</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>priceEach</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>shippingMethods</t>
+  </si>
+  <si>
+    <t>methodID</t>
+  </si>
+  <si>
+    <t>projectedDeliveryDate</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>FOB destination point</t>
+  </si>
+  <si>
+    <t>1st class</t>
+  </si>
+  <si>
+    <t>USPS</t>
+  </si>
+  <si>
+    <t>partID</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Next day</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>3 day, FOB destination</t>
   </si>
 </sst>
 </file>
@@ -279,7 +297,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -304,18 +322,25 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -345,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -354,7 +379,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,20 +714,12 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G43" dT="2020-12-05T17:43:02.33" personId="{BB69781C-6E87-4532-A23F-72E4EF8A4C53}" id="{E67E4FDA-32D1-8D4A-BF84-AB2EF5FBC95B}">
-    <text>Approved by Raymond</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD64E8B-85B3-4BA7-BD71-0C062DF07041}">
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1523,27 +1548,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1465BE65-F850-564F-BA05-7FD93664BED4}">
-  <dimension ref="A2:W65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1465BE65-F850-564F-BA05-7FD93664BED4}">
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="22" max="22" width="35.5" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" customWidth="1"/>
+    <col min="28" max="28" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -1551,34 +1596,26 @@
         <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1602,890 +1639,856 @@
         <f>C3+14</f>
         <v>45612</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="J4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4">
+      <c r="H3">
         <v>1001</v>
       </c>
-      <c r="O4">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4">
+        <v>2376</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45598</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1041</v>
+      </c>
+      <c r="E4">
+        <v>1007</v>
+      </c>
+      <c r="F4" s="6">
+        <f>C4+30</f>
+        <v>45628</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1003</v>
+      </c>
+      <c r="B5">
+        <v>1835</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45599</v>
+      </c>
+      <c r="D5">
+        <v>1029</v>
+      </c>
+      <c r="E5">
+        <v>1007</v>
+      </c>
+      <c r="F5" s="6">
+        <f>C4+30</f>
+        <v>45628</v>
+      </c>
+      <c r="G5" s="6">
+        <f>C5+14</f>
+        <v>45613</v>
+      </c>
+      <c r="H5">
+        <v>1002</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6">
+        <v>1375</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45599</v>
+      </c>
+      <c r="D6">
+        <v>1024</v>
+      </c>
+      <c r="E6">
+        <v>1007</v>
+      </c>
+      <c r="F6" s="6">
+        <f>C6+30</f>
+        <v>45629</v>
+      </c>
+      <c r="G6" s="6">
+        <f>C6+14</f>
+        <v>45613</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1003</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7">
+        <v>2374</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45605</v>
+      </c>
+      <c r="D7">
+        <v>1045</v>
+      </c>
+      <c r="E7">
+        <v>1007</v>
+      </c>
+      <c r="F7" s="6">
+        <f>C7+30</f>
+        <v>45635</v>
+      </c>
+      <c r="G7" s="6">
+        <f>C7+14</f>
+        <v>45619</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1004</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8">
+        <v>3724</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45614</v>
+      </c>
+      <c r="D8">
+        <v>1032</v>
+      </c>
+      <c r="E8">
+        <v>1007</v>
+      </c>
+      <c r="F8" s="6">
+        <f>C8+30</f>
+        <v>45644</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45626</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9">
+        <v>1728</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45616</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1064</v>
+      </c>
+      <c r="E9">
+        <v>1004</v>
+      </c>
+      <c r="F9" s="6">
+        <f>C9+30</f>
+        <v>45646</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10">
         <v>1001</v>
       </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="R4" s="1">
-        <f>P4*W4</f>
-        <v>5.25</v>
-      </c>
-      <c r="U4">
-        <v>1001</v>
-      </c>
-      <c r="V4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="N5">
-        <v>1001</v>
-      </c>
-      <c r="O5">
-        <v>1002</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <f>P5*W5</f>
-        <v>75</v>
-      </c>
-      <c r="U5">
-        <v>1002</v>
-      </c>
-      <c r="V5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="N6">
-        <v>1001</v>
-      </c>
-      <c r="O6">
+      <c r="C10" s="6">
+        <v>45616</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1086</v>
+      </c>
+      <c r="E10">
+        <v>1006</v>
+      </c>
+      <c r="F10" s="6">
+        <f>C10+30</f>
+        <v>45646</v>
+      </c>
+      <c r="G10" s="6">
+        <f>C10+14</f>
+        <v>45630</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11">
         <v>1003</v>
       </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="R6" s="1">
-        <f>P6*W6</f>
-        <v>720</v>
-      </c>
-      <c r="U6">
-        <v>1003</v>
-      </c>
-      <c r="V6" t="s">
-        <v>6</v>
-      </c>
-      <c r="W6" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="N7">
-        <v>1001</v>
-      </c>
-      <c r="O7">
-        <v>1004</v>
-      </c>
-      <c r="P7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S8" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1002</v>
-      </c>
-      <c r="B11">
-        <v>2376</v>
-      </c>
       <c r="C11" s="6">
-        <v>45598</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
+        <v>45624</v>
+      </c>
+      <c r="D11">
+        <v>1091</v>
+      </c>
+      <c r="E11">
+        <v>1006</v>
       </c>
       <c r="F11" s="6">
         <f>C11+30</f>
-        <v>45628</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>45654</v>
+      </c>
+      <c r="G11" s="6">
+        <f>C11+14</f>
+        <v>45638</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="6"/>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="20" spans="8:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="8:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="N30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="K31" s="2"/>
+      <c r="N31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="N32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="N35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="39" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K39" s="2"/>
+      <c r="M39" s="4"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="N41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="43" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K43" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F171E81A-9993-B144-AC72-C0B4BEFE281F}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4">
+        <v>221</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5">
+        <v>339</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6">
+        <v>222</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7">
+        <v>443</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1003</v>
+      </c>
+      <c r="B8">
+        <v>445</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1003</v>
+      </c>
+      <c r="B9">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1004</v>
+      </c>
+      <c r="B10">
+        <v>221</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1004</v>
+      </c>
+      <c r="B11">
+        <v>222</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1004</v>
+      </c>
+      <c r="B12">
+        <v>337</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1004</v>
+      </c>
+      <c r="B13">
+        <v>338</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1005</v>
+      </c>
+      <c r="B14">
+        <v>112</v>
+      </c>
+      <c r="C14">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1005</v>
+      </c>
+      <c r="B15">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1006</v>
+      </c>
+      <c r="B16">
+        <v>443</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1006</v>
+      </c>
+      <c r="B17">
+        <v>337</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1006</v>
+      </c>
+      <c r="B18">
+        <v>107</v>
+      </c>
+      <c r="C18">
+        <v>44000</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1007</v>
+      </c>
+      <c r="B19">
+        <v>221</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1008</v>
+      </c>
+      <c r="B20">
+        <v>443</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1008</v>
+      </c>
+      <c r="B21">
+        <v>445</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1009</v>
+      </c>
+      <c r="B22">
+        <v>112</v>
+      </c>
+      <c r="C22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1009</v>
+      </c>
+      <c r="B23">
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A44B136-15A1-C241-8E57-23028C582CD3}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>337</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>339</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>443</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>445</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0BBCAF-2915-D242-9C06-C3B692D33D22}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1">
-        <v>225</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="H13" s="1">
-        <f>F13*E13</f>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B15">
-        <v>1835</v>
-      </c>
-      <c r="C15" s="6">
-        <v>45599</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6">
-        <f>C11+30</f>
-        <v>45628</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <f>C15+14</f>
-        <v>45613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="6"/>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="1">
-        <v>327</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1">
-        <f>F17*E17</f>
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18:H19" si="0">F18*E18</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3.14</v>
-      </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1">
-        <f>SUM(H17:H20)</f>
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B23">
-        <v>1375</v>
-      </c>
-      <c r="C23" s="6">
-        <v>45599</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="6">
-        <f>C23+30</f>
-        <v>45629</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6">
-        <f>C23+14</f>
-        <v>45613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <f>F25*E25</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="1">
-        <v>225</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ref="H26:H28" si="1">F26*E26</f>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="6"/>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="1">
-        <v>74</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C28" s="6"/>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="1">
-        <v>52</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C29" s="6"/>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="6"/>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="1">
-        <f>SUM(H25:H29)</f>
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="6"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1005</v>
-      </c>
-      <c r="B32">
-        <v>2374</v>
-      </c>
-      <c r="C32" s="6">
-        <v>45605</v>
-      </c>
-      <c r="D32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="6">
-        <f>C32+30</f>
-        <v>45635</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6">
-        <f>C32+14</f>
-        <v>45619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="6"/>
-      <c r="D33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C34" s="6"/>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F34">
-        <v>501</v>
-      </c>
-      <c r="H34" s="1">
-        <f>F34*E34</f>
-        <v>375.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="6"/>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="F35">
-        <v>125</v>
-      </c>
-      <c r="H35">
-        <f>E35*F35</f>
-        <v>156.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="6"/>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="6"/>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="1">
-        <f>SUM(H34:H36)</f>
-        <v>544.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="6"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1006</v>
       </c>
-      <c r="B39">
-        <v>3724</v>
-      </c>
-      <c r="C39" s="6">
-        <v>45614</v>
-      </c>
-      <c r="D39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="6">
-        <f>C39+30</f>
-        <v>45644</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6">
-        <v>45626</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C40" s="6"/>
-      <c r="D40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C41" s="6"/>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="1">
-        <v>327</v>
-      </c>
-      <c r="F41">
-        <v>23</v>
-      </c>
-      <c r="H41" s="1">
-        <f>F41*E41</f>
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C42" s="6"/>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="1">
-        <v>74</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" ref="H42" si="2">F42*E42</f>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="6"/>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" s="1">
-        <v>3.14</v>
-      </c>
-      <c r="F43">
-        <v>44000</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H43" s="1">
-        <f>F43*E43*(1-G43)</f>
-        <v>124344</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C44" s="6"/>
-      <c r="D44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C45" s="6"/>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="1">
-        <f>SUM(H41:H43)</f>
-        <v>132161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C46" s="6"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1007</v>
-      </c>
-      <c r="B47">
-        <v>1728</v>
-      </c>
-      <c r="C47" s="6">
-        <v>45616</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="6">
-        <f>C47+30</f>
-        <v>45646</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C48" s="6"/>
-      <c r="D48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C49" s="6"/>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1">
-        <v>75</v>
-      </c>
-      <c r="F49">
-        <v>12</v>
-      </c>
-      <c r="H49" s="1">
-        <f>F49*E49</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C50" s="6"/>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="1">
-        <f>SUM(H49)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1008</v>
-      </c>
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="6">
-        <v>45616</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="6">
-        <f>C52+30</f>
-        <v>45646</v>
-      </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6">
-        <f>C52+14</f>
-        <v>45630</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C53" s="6"/>
-      <c r="D53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C54" s="6"/>
-      <c r="D54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="1">
-        <v>327</v>
-      </c>
-      <c r="F54">
-        <v>10</v>
-      </c>
-      <c r="H54" s="1">
-        <f>F54*E54</f>
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C55" s="6"/>
-      <c r="D55" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
-      <c r="H55" s="1">
-        <f>F55*E55</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C56" s="6"/>
-      <c r="D56" t="s">
-        <v>45</v>
-      </c>
-      <c r="H56">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C57" s="6"/>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="1">
-        <f>SUM(H54:H56)</f>
-        <v>3390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>1009</v>
-      </c>
-      <c r="B59" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="6">
-        <v>45624</v>
-      </c>
-      <c r="D59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="6">
-        <f>C59+30</f>
-        <v>45654</v>
-      </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6">
-        <f>C59+14</f>
-        <v>45638</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C60" s="6"/>
-      <c r="D60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F61">
-        <v>50</v>
-      </c>
-      <c r="H61" s="1">
-        <f>F61*E61</f>
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="F62">
-        <v>150</v>
-      </c>
-      <c r="H62" s="1">
-        <f>F62*E62</f>
-        <v>187.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64">
-        <f>SUM(H61:H63)*0.02</f>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
-        <v>47</v>
-      </c>
-      <c r="H65" s="1">
-        <f>SUM(H61:H64)</f>
-        <v>242.25</v>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>12.75</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ITSupplyNovemberOrders.xlsx
+++ b/ITSupplyNovemberOrders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/22agerstner/Dropbox/Mac/Desktop/SQL/finalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC4197F-C87F-3D4D-949C-B9F0D534012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB3E805-F17C-344E-A9E6-C86EF95787D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="4" xr2:uid="{F9E4E640-81A9-4B9F-918C-49527ED03070}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{F9E4E640-81A9-4B9F-918C-49527ED03070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>Customer</t>
   </si>
@@ -290,6 +290,21 @@
   </si>
   <si>
     <t>3 day, FOB destination</t>
+  </si>
+  <si>
+    <t>* Add foreign key, priceEach?</t>
+  </si>
+  <si>
+    <t>* shipping cost is based on order total or quantity</t>
+  </si>
+  <si>
+    <t>* violates 2nd normal form with dependencies</t>
+  </si>
+  <si>
+    <t>discountApproval</t>
+  </si>
+  <si>
+    <t>effectivePriceEach</t>
   </si>
 </sst>
 </file>
@@ -370,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -381,13 +396,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD64E8B-85B3-4BA7-BD71-0C062DF07041}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G20"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1564,7 @@
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1575,18 +1587,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="12"/>
-      <c r="O1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1714,14 +1726,14 @@
         <v>1007</v>
       </c>
       <c r="F6" s="6">
-        <f>C6+30</f>
+        <f t="shared" ref="F6:F11" si="0">C6+30</f>
         <v>45629</v>
       </c>
       <c r="G6" s="6">
         <f>C6+14</f>
         <v>45613</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6">
         <v>1003</v>
       </c>
       <c r="O6" s="1"/>
@@ -1743,14 +1755,14 @@
         <v>1007</v>
       </c>
       <c r="F7" s="6">
-        <f>C7+30</f>
+        <f t="shared" si="0"/>
         <v>45635</v>
       </c>
       <c r="G7" s="6">
         <f>C7+14</f>
         <v>45619</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7">
         <v>1004</v>
       </c>
       <c r="O7" s="1"/>
@@ -1772,13 +1784,12 @@
         <v>1007</v>
       </c>
       <c r="F8" s="6">
-        <f>C8+30</f>
+        <f t="shared" si="0"/>
         <v>45644</v>
       </c>
       <c r="G8" s="6">
         <v>45626</v>
       </c>
-      <c r="H8" s="9"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
@@ -1799,7 +1810,7 @@
         <v>1004</v>
       </c>
       <c r="F9" s="6">
-        <f>C9+30</f>
+        <f t="shared" si="0"/>
         <v>45646</v>
       </c>
       <c r="O9" s="1"/>
@@ -1821,14 +1832,14 @@
         <v>1006</v>
       </c>
       <c r="F10" s="6">
-        <f>C10+30</f>
+        <f t="shared" si="0"/>
         <v>45646</v>
       </c>
       <c r="G10" s="6">
         <f>C10+14</f>
         <v>45630</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10">
         <v>1005</v>
       </c>
     </row>
@@ -1849,14 +1860,14 @@
         <v>1006</v>
       </c>
       <c r="F11" s="6">
-        <f>C11+30</f>
+        <f t="shared" si="0"/>
         <v>45654</v>
       </c>
       <c r="G11" s="6">
         <f>C11+14</f>
         <v>45638</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11">
         <v>1006</v>
       </c>
     </row>
@@ -1950,23 +1961,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F171E81A-9993-B144-AC72-C0B4BEFE281F}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -1977,10 +1992,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -1991,7 +2012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -2002,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -2013,7 +2034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -2023,9 +2044,9 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -2035,8 +2056,11 @@
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -2047,7 +2071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1003</v>
       </c>
@@ -2058,7 +2082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1004</v>
       </c>
@@ -2069,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1004</v>
       </c>
@@ -2080,7 +2104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1004</v>
       </c>
@@ -2091,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1004</v>
       </c>
@@ -2102,7 +2126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1005</v>
       </c>
@@ -2113,7 +2137,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1005</v>
       </c>
@@ -2124,7 +2148,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1006</v>
       </c>
@@ -2135,7 +2159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1006</v>
       </c>
@@ -2146,7 +2170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -2156,11 +2180,14 @@
       <c r="C18">
         <v>44000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1007</v>
       </c>
@@ -2171,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1008</v>
       </c>
@@ -2182,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1008</v>
       </c>
@@ -2193,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1009</v>
       </c>
@@ -2204,7 +2231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1009</v>
       </c>
@@ -2228,17 +2255,20 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -2371,23 +2401,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0BBCAF-2915-D242-9C06-C3B692D33D22}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
@@ -2401,7 +2434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -2415,7 +2448,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -2429,7 +2462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -2442,22 +2475,28 @@
       <c r="D5" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D6">
         <v>12.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -2471,7 +2510,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -2482,7 +2521,7 @@
         <v>77</v>
       </c>
       <c r="D8">
-        <v>12.75</v>
+        <v>17.25</v>
       </c>
     </row>
   </sheetData>
